--- a/05_Data/data_checks.xlsx
+++ b/05_Data/data_checks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/SPAML/SPAML-PSA/05_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96AE42-9EA4-774C-A8A6-A342806C3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8FE7B-A407-9E44-983E-BC050A9D819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,9 +537,6 @@
     <t>9 words we removed/updated due to typos</t>
   </si>
   <si>
-    <t>535695 one removed due to misalignment</t>
-  </si>
-  <si>
     <t>16 trials that were old spellings/updated</t>
   </si>
   <si>
@@ -595,13 +592,16 @@
   </si>
   <si>
     <t>52 trials due to spelling corrections</t>
+  </si>
+  <si>
+    <t>608566 one removed due to misalignment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -627,6 +627,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -649,13 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,15 +678,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -696,13 +699,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,16 +939,16 @@
   </sheetPr>
   <dimension ref="A1:AF1069"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="62" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="5" customWidth="1"/>
     <col min="5" max="30" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1028,205 +1044,205 @@
         <v>120</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="62" customHeight="1">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="62" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="4" t="s">
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1240,7 +1256,7 @@
       <c r="C4" s="1">
         <v>305804</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2773399</v>
       </c>
       <c r="E4">
@@ -1292,7 +1308,7 @@
         <v>3053386</v>
       </c>
       <c r="U4">
-        <v>1663162</v>
+        <v>1889396</v>
       </c>
       <c r="V4">
         <v>5102416</v>
@@ -1338,7 +1354,7 @@
       <c r="C5" s="1">
         <v>297438</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>2767071</v>
       </c>
       <c r="E5">
@@ -1390,7 +1406,7 @@
         <v>3046974</v>
       </c>
       <c r="U5">
-        <v>1656628</v>
+        <v>1882862</v>
       </c>
       <c r="V5">
         <v>4928918</v>
@@ -1436,7 +1452,7 @@
       <c r="C6" s="1">
         <v>297438</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2766627</v>
       </c>
       <c r="E6">
@@ -1445,7 +1461,7 @@
       <c r="F6" s="1">
         <v>6738390</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1738314</v>
       </c>
       <c r="H6">
@@ -1488,7 +1504,7 @@
         <v>3046974</v>
       </c>
       <c r="U6">
-        <v>1656628</v>
+        <v>1882862</v>
       </c>
       <c r="V6">
         <v>4928558</v>
@@ -1524,102 +1540,102 @@
         <v>3064584</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="62" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="V7" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="W7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB7" s="1" t="s">
+      <c r="Y7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC7" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AD7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AE7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>170</v>
+      <c r="AE7" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="62" customHeight="1">
@@ -1632,7 +1648,7 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1704,412 +1720,412 @@
       <c r="AA8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="62" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="62" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="I10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="N10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="4" t="s">
+      <c r="S10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AD10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AE10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="62" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="AE10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC11" s="4" t="s">
+      <c r="O11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="AD11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="62" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="AD11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
         <v>0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="14">
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="11">
         <v>9</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="11">
         <v>4</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="9">
         <v>3</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="9">
         <v>3</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="11">
         <v>1</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="11">
         <v>1</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="9">
         <v>5</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="9">
         <v>3</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="9">
         <v>5</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="9">
         <v>1</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Z12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="11">
         <v>2</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="11">
         <v>0</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AC12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AD12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="AE12" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>171</v>
+      <c r="AE12" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="62" customHeight="1">
@@ -2122,7 +2138,7 @@
       <c r="C13" s="1">
         <v>235</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>1436</v>
       </c>
       <c r="E13">
@@ -2174,7 +2190,7 @@
         <v>1506</v>
       </c>
       <c r="U13">
-        <v>793</v>
+        <v>915</v>
       </c>
       <c r="V13">
         <v>2762</v>
@@ -2220,7 +2236,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2292,313 +2308,313 @@
       <c r="AA14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="62" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="AB14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AB15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AC15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AC15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD15" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AE15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AF15" s="4" t="s">
+      <c r="AF15" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="62" customHeight="1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="62" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF17" s="4" t="s">
+      <c r="C17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF17" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2612,7 +2628,7 @@
       <c r="C18" s="1">
         <v>21</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>79</v>
       </c>
       <c r="E18">
@@ -2664,7 +2680,7 @@
         <v>75</v>
       </c>
       <c r="U18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V18">
         <v>108</v>
@@ -2710,7 +2726,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>2</v>
       </c>
       <c r="E19">
@@ -2762,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
         <v>9</v>
@@ -2798,101 +2814,101 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="62" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X20">
+      <c r="C20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="11">
         <v>8</v>
       </c>
-      <c r="Y20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF20" s="4" t="s">
+      <c r="Y20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF20" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2906,7 +2922,7 @@
       <c r="C21" s="1">
         <v>65</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>164</v>
       </c>
       <c r="E21">
@@ -2958,7 +2974,7 @@
         <v>169</v>
       </c>
       <c r="U21">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="V21">
         <v>359</v>
@@ -3004,7 +3020,7 @@
       <c r="C22" s="1">
         <v>10</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>40</v>
       </c>
       <c r="E22">
@@ -3056,7 +3072,7 @@
         <v>17</v>
       </c>
       <c r="U22" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="V22" s="1">
         <v>121</v>
@@ -3102,7 +3118,7 @@
       <c r="C23" s="1">
         <v>30</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>183</v>
       </c>
       <c r="E23">
@@ -3154,7 +3170,7 @@
         <v>142</v>
       </c>
       <c r="U23" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="V23" s="1">
         <v>575</v>
@@ -3200,7 +3216,7 @@
       <c r="C24" s="1">
         <v>24</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>111</v>
       </c>
       <c r="E24">
@@ -3252,7 +3268,7 @@
         <v>96</v>
       </c>
       <c r="U24" s="1">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="V24" s="1">
         <v>317</v>
@@ -3298,7 +3314,7 @@
       <c r="C25" s="1">
         <v>95164</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>893637</v>
       </c>
       <c r="E25">
@@ -3350,7 +3366,7 @@
         <v>985266</v>
       </c>
       <c r="U25">
-        <v>535696</v>
+        <v>608567</v>
       </c>
       <c r="V25" s="1">
         <v>1588894</v>
@@ -3386,493 +3402,493 @@
         <v>990858</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="62" customHeight="1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:32" s="18" customFormat="1" ht="62" customHeight="1">
+      <c r="A26" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="1">
-        <v>9015</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" s="16">
+        <v>8956</v>
+      </c>
+      <c r="D26" s="17">
         <v>58124</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="18">
         <v>59138</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="18">
         <v>145135</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="18">
         <v>34635</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="15">
         <v>425095</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="18">
         <v>71438</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="18">
         <v>6366</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="18">
         <v>40058</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="15">
         <v>19709</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="18">
         <v>381</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="15">
         <v>49026</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="18">
         <v>46663</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="18">
         <v>75498</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="18">
         <v>81440</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="18">
         <v>10871</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="18">
         <v>5489</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="18">
         <v>61560</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="18">
+        <v>37880</v>
+      </c>
+      <c r="V26" s="15">
+        <v>114356</v>
+      </c>
+      <c r="W26" s="18">
+        <v>25533</v>
+      </c>
+      <c r="X26" s="18">
+        <v>1150</v>
+      </c>
+      <c r="Y26" s="18">
+        <v>36460</v>
+      </c>
+      <c r="Z26" s="18">
+        <v>3771</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>130712</v>
+      </c>
+      <c r="AB26" s="18">
+        <v>81214</v>
+      </c>
+      <c r="AC26" s="18">
+        <v>19599</v>
+      </c>
+      <c r="AD26" s="18">
+        <v>64598</v>
+      </c>
+      <c r="AE26" s="18">
+        <v>74858</v>
+      </c>
+      <c r="AF26" s="18">
+        <v>74858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="18" customFormat="1" ht="62" customHeight="1">
+      <c r="A27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="16">
+        <v>5529</v>
+      </c>
+      <c r="D27" s="17">
+        <v>36816</v>
+      </c>
+      <c r="E27" s="18">
+        <v>6871</v>
+      </c>
+      <c r="F27" s="18">
+        <v>29689</v>
+      </c>
+      <c r="G27" s="18">
+        <v>5936</v>
+      </c>
+      <c r="H27" s="18">
+        <v>62665</v>
+      </c>
+      <c r="I27" s="18">
+        <v>18125</v>
+      </c>
+      <c r="J27" s="15">
+        <v>4755</v>
+      </c>
+      <c r="K27" s="15">
+        <v>19185</v>
+      </c>
+      <c r="L27" s="15">
+        <v>11465</v>
+      </c>
+      <c r="M27" s="18">
+        <v>25</v>
+      </c>
+      <c r="N27" s="18">
+        <v>9173</v>
+      </c>
+      <c r="O27" s="18">
+        <v>21160</v>
+      </c>
+      <c r="P27" s="18">
+        <v>35072</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>34491</v>
+      </c>
+      <c r="R27" s="18">
+        <v>1405</v>
+      </c>
+      <c r="S27" s="18">
+        <v>483</v>
+      </c>
+      <c r="T27" s="18">
+        <v>24875</v>
+      </c>
+      <c r="U27" s="18">
+        <v>16393</v>
+      </c>
+      <c r="V27" s="15">
+        <v>107893</v>
+      </c>
+      <c r="W27" s="18">
         <v>33251</v>
       </c>
-      <c r="V26" s="1">
-        <v>114356</v>
-      </c>
-      <c r="W26">
-        <v>25533</v>
-      </c>
-      <c r="X26">
-        <v>1150</v>
-      </c>
-      <c r="Y26">
-        <v>36460</v>
-      </c>
-      <c r="Z26">
+      <c r="X27" s="18">
+        <v>86</v>
+      </c>
+      <c r="Y27" s="18">
+        <v>16151</v>
+      </c>
+      <c r="Z27" s="18">
         <v>3771</v>
       </c>
-      <c r="AA26">
-        <v>130712</v>
-      </c>
-      <c r="AB26">
-        <v>81214</v>
-      </c>
-      <c r="AC26">
-        <v>19599</v>
-      </c>
-      <c r="AD26">
-        <v>64598</v>
-      </c>
-      <c r="AE26">
-        <v>74858</v>
-      </c>
-      <c r="AF26">
-        <v>74858</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="62" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="AA27" s="18">
+        <v>80501</v>
+      </c>
+      <c r="AB27" s="18">
+        <v>14064</v>
+      </c>
+      <c r="AC27" s="18">
+        <v>6504</v>
+      </c>
+      <c r="AD27" s="18">
+        <v>13892</v>
+      </c>
+      <c r="AE27" s="18">
+        <v>15674</v>
+      </c>
+      <c r="AF27" s="18">
+        <v>15674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="18" customFormat="1" ht="62" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4729</v>
-      </c>
-      <c r="D27" s="6">
-        <v>36816</v>
-      </c>
-      <c r="E27">
-        <v>6871</v>
-      </c>
-      <c r="F27">
-        <v>29689</v>
-      </c>
-      <c r="G27">
-        <v>5936</v>
-      </c>
-      <c r="H27">
-        <v>62665</v>
-      </c>
-      <c r="I27">
-        <v>18125</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4755</v>
-      </c>
-      <c r="K27" s="1">
-        <v>19185</v>
-      </c>
-      <c r="L27" s="1">
-        <v>11465</v>
-      </c>
-      <c r="M27">
-        <v>25</v>
-      </c>
-      <c r="N27">
-        <v>9173</v>
-      </c>
-      <c r="O27">
-        <v>21160</v>
-      </c>
-      <c r="P27">
-        <v>35072</v>
-      </c>
-      <c r="Q27">
-        <v>34491</v>
-      </c>
-      <c r="R27">
-        <v>1405</v>
-      </c>
-      <c r="S27">
+      <c r="B28" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1583</v>
+      </c>
+      <c r="D28" s="17">
+        <v>13362</v>
+      </c>
+      <c r="E28" s="18">
+        <v>17812</v>
+      </c>
+      <c r="F28" s="18">
+        <v>11924</v>
+      </c>
+      <c r="G28" s="18">
+        <v>6301</v>
+      </c>
+      <c r="H28" s="18">
+        <v>113068</v>
+      </c>
+      <c r="I28" s="18">
+        <v>7064</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1105</v>
+      </c>
+      <c r="K28" s="15">
+        <v>3354</v>
+      </c>
+      <c r="L28" s="18">
+        <v>4966</v>
+      </c>
+      <c r="M28" s="18">
+        <v>155</v>
+      </c>
+      <c r="N28" s="18">
+        <v>20840</v>
+      </c>
+      <c r="O28" s="18">
+        <v>8342</v>
+      </c>
+      <c r="P28" s="18">
+        <v>16999</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>19980</v>
+      </c>
+      <c r="R28" s="18">
+        <v>1002</v>
+      </c>
+      <c r="S28" s="18">
+        <v>570</v>
+      </c>
+      <c r="T28" s="18">
+        <v>12989</v>
+      </c>
+      <c r="U28" s="18">
+        <v>5547</v>
+      </c>
+      <c r="V28" s="18">
+        <v>29414</v>
+      </c>
+      <c r="W28" s="18">
+        <v>5004</v>
+      </c>
+      <c r="X28" s="18">
+        <v>19</v>
+      </c>
+      <c r="Y28" s="18">
+        <v>10278</v>
+      </c>
+      <c r="Z28" s="18">
+        <v>15</v>
+      </c>
+      <c r="AA28" s="18">
+        <v>80501</v>
+      </c>
+      <c r="AB28" s="18">
+        <v>24277</v>
+      </c>
+      <c r="AC28" s="18">
+        <v>6418</v>
+      </c>
+      <c r="AD28" s="18">
+        <v>23592</v>
+      </c>
+      <c r="AE28" s="18">
+        <v>10449</v>
+      </c>
+      <c r="AF28" s="18">
+        <v>10449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="18" customFormat="1" ht="62" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1692</v>
+      </c>
+      <c r="D29" s="17">
+        <v>12808</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2596</v>
+      </c>
+      <c r="F29" s="18">
+        <v>14086</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1697</v>
+      </c>
+      <c r="H29" s="18">
+        <v>23637</v>
+      </c>
+      <c r="I29" s="18">
+        <v>6362</v>
+      </c>
+      <c r="J29" s="18">
+        <v>3002</v>
+      </c>
+      <c r="K29" s="15">
+        <v>6470</v>
+      </c>
+      <c r="L29" s="18">
+        <v>3232</v>
+      </c>
+      <c r="M29" s="18">
+        <v>7</v>
+      </c>
+      <c r="N29" s="18">
+        <v>3173</v>
+      </c>
+      <c r="O29" s="18">
+        <v>9220</v>
+      </c>
+      <c r="P29" s="18">
+        <v>17008</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>16938</v>
+      </c>
+      <c r="R29" s="18">
+        <v>626</v>
+      </c>
+      <c r="S29" s="18">
+        <v>183</v>
+      </c>
+      <c r="T29" s="18">
+        <v>9088</v>
+      </c>
+      <c r="U29" s="18">
+        <v>5121</v>
+      </c>
+      <c r="V29" s="18">
+        <v>38266</v>
+      </c>
+      <c r="W29" s="18">
+        <v>9822</v>
+      </c>
+      <c r="X29" s="18">
+        <v>23</v>
+      </c>
+      <c r="Y29" s="18">
+        <v>5987</v>
+      </c>
+      <c r="Z29" s="18">
+        <v>906</v>
+      </c>
+      <c r="AA29" s="18">
+        <v>30350</v>
+      </c>
+      <c r="AB29" s="18">
+        <v>4219</v>
+      </c>
+      <c r="AC29" s="18">
+        <v>1978</v>
+      </c>
+      <c r="AD29" s="18">
+        <v>4554</v>
+      </c>
+      <c r="AE29" s="18">
+        <v>5155</v>
+      </c>
+      <c r="AF29" s="18">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="18" customFormat="1" ht="62" customHeight="1">
+      <c r="A30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="15">
+        <v>15265</v>
+      </c>
+      <c r="D30" s="17">
+        <v>101619</v>
+      </c>
+      <c r="E30" s="18">
+        <v>75020</v>
+      </c>
+      <c r="F30" s="18">
+        <v>181369</v>
+      </c>
+      <c r="G30" s="18">
+        <v>43827</v>
+      </c>
+      <c r="H30" s="18">
+        <v>546778</v>
+      </c>
+      <c r="I30" s="18">
+        <v>93071</v>
+      </c>
+      <c r="J30" s="18">
+        <v>11681</v>
+      </c>
+      <c r="K30" s="15">
+        <v>61290</v>
+      </c>
+      <c r="L30" s="18">
+        <v>33669</v>
+      </c>
+      <c r="M30" s="18">
         <v>483</v>
       </c>
-      <c r="T27">
-        <v>24875</v>
-      </c>
-      <c r="U27">
-        <v>11926</v>
-      </c>
-      <c r="V27" s="1">
-        <v>107893</v>
-      </c>
-      <c r="W27">
-        <v>33251</v>
-      </c>
-      <c r="X27">
-        <v>86</v>
-      </c>
-      <c r="Y27">
-        <v>16151</v>
-      </c>
-      <c r="Z27">
-        <v>3771</v>
-      </c>
-      <c r="AA27">
-        <v>80501</v>
-      </c>
-      <c r="AB27">
-        <v>14064</v>
-      </c>
-      <c r="AC27">
-        <v>6504</v>
-      </c>
-      <c r="AD27">
-        <v>13892</v>
-      </c>
-      <c r="AE27">
-        <v>15674</v>
-      </c>
-      <c r="AF27">
-        <v>15674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" ht="62" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1583</v>
-      </c>
-      <c r="D28" s="6">
-        <v>13362</v>
-      </c>
-      <c r="E28">
-        <v>17812</v>
-      </c>
-      <c r="F28">
-        <v>11924</v>
-      </c>
-      <c r="G28">
-        <v>6301</v>
-      </c>
-      <c r="H28">
-        <v>113068</v>
-      </c>
-      <c r="I28">
-        <v>7064</v>
-      </c>
-      <c r="J28">
-        <v>1105</v>
-      </c>
-      <c r="K28" s="1">
-        <v>3354</v>
-      </c>
-      <c r="L28">
-        <v>4966</v>
-      </c>
-      <c r="M28">
-        <v>155</v>
-      </c>
-      <c r="N28">
-        <v>20840</v>
-      </c>
-      <c r="O28">
-        <v>8342</v>
-      </c>
-      <c r="P28">
-        <v>16999</v>
-      </c>
-      <c r="Q28">
-        <v>19980</v>
-      </c>
-      <c r="R28">
-        <v>1002</v>
-      </c>
-      <c r="S28">
-        <v>570</v>
-      </c>
-      <c r="T28">
-        <v>12989</v>
-      </c>
-      <c r="U28">
-        <v>4291</v>
-      </c>
-      <c r="V28">
-        <v>29414</v>
-      </c>
-      <c r="W28">
-        <v>5004</v>
-      </c>
-      <c r="X28">
-        <v>19</v>
-      </c>
-      <c r="Y28">
-        <v>10278</v>
-      </c>
-      <c r="Z28">
-        <v>15</v>
-      </c>
-      <c r="AA28">
-        <v>80501</v>
-      </c>
-      <c r="AB28">
-        <v>24277</v>
-      </c>
-      <c r="AC28">
-        <v>6418</v>
-      </c>
-      <c r="AD28">
-        <v>23592</v>
-      </c>
-      <c r="AE28">
-        <v>10449</v>
-      </c>
-      <c r="AF28">
-        <v>10449</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="62" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1692</v>
-      </c>
-      <c r="D29" s="6">
-        <v>12808</v>
-      </c>
-      <c r="E29">
-        <v>2596</v>
-      </c>
-      <c r="F29">
-        <v>14086</v>
-      </c>
-      <c r="G29">
-        <v>1697</v>
-      </c>
-      <c r="H29">
-        <v>23637</v>
-      </c>
-      <c r="I29">
-        <v>6362</v>
-      </c>
-      <c r="J29">
-        <v>3002</v>
-      </c>
-      <c r="K29" s="1">
-        <v>6470</v>
-      </c>
-      <c r="L29">
-        <v>3232</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>3173</v>
-      </c>
-      <c r="O29">
-        <v>9220</v>
-      </c>
-      <c r="P29">
-        <v>17008</v>
-      </c>
-      <c r="Q29">
-        <v>16938</v>
-      </c>
-      <c r="R29">
-        <v>626</v>
-      </c>
-      <c r="S29">
-        <v>183</v>
-      </c>
-      <c r="T29">
-        <v>9088</v>
-      </c>
-      <c r="U29">
-        <v>3960</v>
-      </c>
-      <c r="V29">
-        <v>38266</v>
-      </c>
-      <c r="W29">
-        <v>9822</v>
-      </c>
-      <c r="X29">
-        <v>23</v>
-      </c>
-      <c r="Y29">
-        <v>5987</v>
-      </c>
-      <c r="Z29">
-        <v>906</v>
-      </c>
-      <c r="AA29">
-        <v>30350</v>
-      </c>
-      <c r="AB29">
-        <v>4219</v>
-      </c>
-      <c r="AC29">
-        <v>1978</v>
-      </c>
-      <c r="AD29">
-        <v>4554</v>
-      </c>
-      <c r="AE29">
-        <v>5155</v>
-      </c>
-      <c r="AF29">
-        <v>5155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="62" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1">
-        <v>14524</v>
-      </c>
-      <c r="D30" s="6">
-        <v>101619</v>
-      </c>
-      <c r="E30">
-        <v>75020</v>
-      </c>
-      <c r="F30">
-        <v>181369</v>
-      </c>
-      <c r="G30">
-        <v>43827</v>
-      </c>
-      <c r="H30">
-        <v>546778</v>
-      </c>
-      <c r="I30">
-        <v>93071</v>
-      </c>
-      <c r="J30">
-        <v>11681</v>
-      </c>
-      <c r="K30" s="1">
-        <v>61290</v>
-      </c>
-      <c r="L30">
-        <v>33669</v>
-      </c>
-      <c r="M30">
-        <v>483</v>
-      </c>
-      <c r="N30">
+      <c r="N30" s="18">
         <v>68859</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="18">
         <v>72313</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="18">
         <v>119747</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="18">
         <v>126180</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="18">
         <v>12774</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="18">
         <v>6254</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="18">
         <v>92989</v>
       </c>
-      <c r="U30">
-        <v>47357</v>
-      </c>
-      <c r="V30">
+      <c r="U30" s="18">
+        <v>57094</v>
+      </c>
+      <c r="V30" s="18">
         <v>236678</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="18">
         <v>61304</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="18">
         <v>1248</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="18">
         <v>57879</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="18">
         <v>5891</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="18">
         <v>233886</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="18">
         <v>107392</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="18">
         <v>29355</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="18">
         <v>90383</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="18">
         <v>95907</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="18">
         <v>95907</v>
       </c>
     </row>
@@ -3886,7 +3902,7 @@
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3895,7 +3911,7 @@
       <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3934,7 +3950,7 @@
       <c r="S31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T31" s="4" t="s">
+      <c r="T31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="U31" s="1" t="s">
@@ -3958,3618 +3974,3618 @@
       <c r="AA31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF31" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" ht="62" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="AB31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="9">
         <v>4950</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="12">
         <v>5000</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <v>5000</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="11">
         <v>5000</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="11">
         <v>5000</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="11">
         <v>5000</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="11">
         <v>5000</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="11">
         <v>5000</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="9">
         <v>5000</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="9">
         <v>5000</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="9">
         <v>5000</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="9">
         <v>5000</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="9">
         <v>5000</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="9">
         <v>5000</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="9">
         <v>5000</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="9">
         <v>5000</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32" s="9">
         <v>5000</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="9">
         <v>5000</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="9">
         <v>5000</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32" s="9">
         <v>5000</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32" s="9">
         <v>5000</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Y32" s="9">
         <v>5000</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="Z32" s="9">
         <v>5000</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AA32" s="9">
         <v>5000</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AB32" s="9">
         <v>5000</v>
       </c>
-      <c r="AC32" s="4">
+      <c r="AC32" s="13">
         <v>5000</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" s="11">
         <v>5000</v>
       </c>
-      <c r="AE32" s="10">
+      <c r="AE32" s="9">
         <v>5000</v>
       </c>
-      <c r="AF32" s="11">
+      <c r="AF32" s="9">
         <v>5000</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="62" customHeight="1">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="R33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="T33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="W33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="X33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AC33" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AD33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AE33" s="10">
-        <v>1000</v>
-      </c>
-      <c r="AF33" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" ht="62" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="C33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="R33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="S33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="T33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="U33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="V33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="X33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Y33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AB33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AD33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AE33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AF33" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="9">
         <v>990</v>
       </c>
-      <c r="D34" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1000</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I34" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J34" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="R34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="T34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="W34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="X34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AC34" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AD34" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AE34" s="10">
-        <v>1000</v>
-      </c>
-      <c r="AF34" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="62" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="D34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="R34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="S34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="T34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="U34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="V34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="X34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Y34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AB34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AC34" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AD34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AE34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AF34" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="9">
         <v>990</v>
       </c>
-      <c r="D35" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1000</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J35" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="R35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="T35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="W35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="X35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AC35" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AD35" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AE35" s="10">
-        <v>1000</v>
-      </c>
-      <c r="AF35" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" ht="62" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="D35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="R35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="S35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="T35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="U35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="V35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="X35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Y35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AE35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AF35" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="9">
         <v>990</v>
       </c>
-      <c r="D36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="R36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="T36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="W36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="X36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AC36" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AD36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AE36" s="10">
-        <v>1000</v>
-      </c>
-      <c r="AF36" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" ht="62" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="D36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="R36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="S36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="T36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="U36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="V36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="X36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Y36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AC36" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AD36" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AE36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AF36" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="9">
         <v>980</v>
       </c>
-      <c r="D37" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1000</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J37" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q37" s="1">
+      <c r="D37" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q37" s="9">
         <v>1033</v>
       </c>
-      <c r="R37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="T37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="W37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="X37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AC37" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AD37" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AE37" s="10">
-        <v>1000</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" ht="62" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="R37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="S37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="T37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="U37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="V37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="X37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Y37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AB37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AD37" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AE37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AF37" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="9">
         <v>974</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="14">
         <v>995</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="12">
         <v>984</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="12">
         <v>988</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="12">
         <v>979</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="12">
         <v>997</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="12">
         <v>998</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="12">
         <v>970</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="9">
         <v>991</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="9">
         <v>979</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="9">
         <v>966</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="9">
         <v>982</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="9">
         <v>998</v>
       </c>
-      <c r="P38" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q38" s="1">
+      <c r="P38" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q38" s="9">
         <v>953</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="9">
         <v>979</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="9">
         <v>975</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="9">
         <v>996</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U38" s="9">
         <v>987</v>
       </c>
-      <c r="V38" s="1">
-        <v>1000</v>
-      </c>
-      <c r="W38" s="1">
+      <c r="V38" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W38" s="9">
         <v>996</v>
       </c>
-      <c r="X38" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y38" s="1">
+      <c r="X38" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Y38" s="9">
         <v>983</v>
       </c>
-      <c r="Z38" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA38" s="1">
+      <c r="Z38" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA38" s="9">
         <v>961</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AB38" s="9">
         <v>96</v>
       </c>
-      <c r="AC38" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AD38" s="5">
+      <c r="AC38" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AD38" s="12">
         <v>998</v>
       </c>
-      <c r="AE38" s="10">
+      <c r="AE38" s="9">
         <v>992</v>
       </c>
-      <c r="AF38" s="11">
+      <c r="AF38" s="9">
         <v>983</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="62" customHeight="1">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="9">
         <v>959</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="14">
         <v>990</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="12">
         <v>982</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="12">
         <v>984</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="12">
         <v>979</v>
       </c>
-      <c r="H39" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I39" s="5">
+      <c r="H39" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="12">
         <v>988</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="13">
         <v>970</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="9">
         <v>978</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="9">
         <v>971</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="9">
         <v>965</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="9">
         <v>979</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="9">
         <v>998</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="9">
         <v>988</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="9">
         <v>986</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="9">
         <v>980</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39" s="9">
         <v>987</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T39" s="9">
         <v>986</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U39" s="9">
         <v>983</v>
       </c>
-      <c r="V39" s="1">
-        <v>1000</v>
-      </c>
-      <c r="W39" s="1">
+      <c r="V39" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W39" s="9">
         <v>993</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X39" s="9">
         <v>982</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Y39" s="9">
         <v>987</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="Z39" s="9">
         <v>981</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AA39" s="9">
         <v>984</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AB39" s="9">
         <v>974</v>
       </c>
-      <c r="AC39" s="4">
+      <c r="AC39" s="13">
         <v>968</v>
       </c>
-      <c r="AD39" s="5">
+      <c r="AD39" s="12">
         <v>955</v>
       </c>
-      <c r="AE39" s="10">
+      <c r="AE39" s="9">
         <v>990</v>
       </c>
-      <c r="AF39" s="11">
+      <c r="AF39" s="9">
         <v>985</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="62" customHeight="1">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="9">
         <v>982</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="14">
         <v>995</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="12">
         <v>992</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="12">
         <v>988</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="12">
         <v>983</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="12">
         <v>992</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="12">
         <v>998</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="12">
         <v>978</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="9">
         <v>991</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="9">
         <v>983</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="9">
         <v>992</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="9">
         <v>982</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="9">
         <v>998</v>
       </c>
-      <c r="P40" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q40" s="1">
+      <c r="P40" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q40" s="9">
         <v>965</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="9">
         <v>986</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40" s="9">
         <v>981</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T40" s="9">
         <v>993</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U40" s="9">
         <v>991</v>
       </c>
-      <c r="V40" s="1">
-        <v>1000</v>
-      </c>
-      <c r="W40" s="1">
+      <c r="V40" s="9">
+        <v>1000</v>
+      </c>
+      <c r="W40" s="9">
         <v>996</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X40" s="9">
         <v>997</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y40" s="9">
         <v>987</v>
       </c>
-      <c r="Z40" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA40" s="1">
+      <c r="Z40" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA40" s="9">
         <v>957</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AB40" s="9">
         <v>988</v>
       </c>
-      <c r="AC40" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AD40" s="5">
+      <c r="AC40" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AD40" s="12">
         <v>998</v>
       </c>
-      <c r="AE40" s="10">
+      <c r="AE40" s="9">
         <v>990</v>
       </c>
-      <c r="AF40" s="11">
+      <c r="AF40" s="9">
         <v>988</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="62" customHeight="1">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="9">
         <v>967</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="14">
         <v>988</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="12">
         <v>993</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="12">
         <v>987</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="12">
         <v>982</v>
       </c>
-      <c r="H41" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="H41" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="12">
         <v>986</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="12">
         <v>982</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="9">
         <v>989</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="9">
         <v>980</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="9">
         <v>970</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="9">
         <v>983</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="9">
         <v>998</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="9">
         <v>991</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="9">
         <v>985</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="9">
         <v>984</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="9">
         <v>987</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41" s="9">
         <v>988</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U41" s="9">
         <v>987</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V41" s="9">
         <v>999</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W41" s="9">
         <v>990</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41" s="9">
         <v>989</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Y41" s="9">
         <v>989</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="Z41" s="9">
         <v>981</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AA41" s="9">
         <v>988</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AB41" s="9">
         <v>978</v>
       </c>
-      <c r="AC41" s="4">
+      <c r="AC41" s="13">
         <v>975</v>
       </c>
-      <c r="AD41" s="5">
+      <c r="AD41" s="12">
         <v>960</v>
       </c>
-      <c r="AE41" s="10">
+      <c r="AE41" s="9">
         <v>987</v>
       </c>
-      <c r="AF41" s="11">
+      <c r="AF41" s="9">
         <v>995</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="62" customHeight="1">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="9">
         <v>3839</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="14">
         <v>3950</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="12">
         <v>3911</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="12">
         <v>3903</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="12">
         <v>3873</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="12">
         <v>3978</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="12">
         <v>3930</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="11">
         <v>3823</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="9">
         <v>3912</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="9">
         <v>3851</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="9">
         <v>3822</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="9">
         <v>3860</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="9">
         <v>3983</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="9">
         <v>3942</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="9">
         <v>3795</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="9">
         <v>3892</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="9">
         <v>3963</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T42" s="9">
         <v>3934</v>
       </c>
-      <c r="U42" s="1">
+      <c r="U42" s="9">
         <v>3918</v>
       </c>
-      <c r="V42" s="1">
+      <c r="V42" s="9">
         <v>3994</v>
       </c>
-      <c r="W42" s="1">
+      <c r="W42" s="9">
         <v>3950</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X42" s="9">
         <v>3933</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="Y42" s="9">
         <v>3917</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="Z42" s="9">
         <v>3926</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="11">
         <v>3795</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AB42" s="9">
         <v>3881</v>
       </c>
-      <c r="AC42" s="4">
+      <c r="AC42" s="13">
         <v>3885</v>
       </c>
-      <c r="AD42" s="5">
+      <c r="AD42" s="12">
         <v>3835</v>
       </c>
-      <c r="AE42" s="10">
+      <c r="AE42" s="9">
         <v>3921</v>
       </c>
-      <c r="AF42" s="11">
+      <c r="AF42" s="9">
         <v>3902</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="62" customHeight="1">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="9">
         <v>3837</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="14">
         <v>3950</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="12">
         <v>3911</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="11">
         <v>3903</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="12">
         <v>3873</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="12">
         <v>3978</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="12">
         <v>3930</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="12">
         <v>3823</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="9">
         <v>3912</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="9">
         <v>3851</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="9">
         <v>194</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="9">
         <v>3860</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="9">
         <v>3983</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="9">
         <v>3942</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43" s="9">
         <v>3795</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43" s="9">
         <v>3892</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43" s="9">
         <v>3863</v>
       </c>
-      <c r="T43" s="1">
+      <c r="T43" s="9">
         <v>3934</v>
       </c>
-      <c r="U43" s="1">
+      <c r="U43" s="9">
         <v>3918</v>
       </c>
-      <c r="V43" s="1">
+      <c r="V43" s="9">
         <v>3994</v>
       </c>
-      <c r="W43" s="1">
+      <c r="W43" s="9">
         <v>3950</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X43" s="9">
         <v>3949</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="Y43" s="9">
         <v>3917</v>
       </c>
-      <c r="Z43" s="1">
+      <c r="Z43" s="9">
         <v>3926</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AA43" s="9">
         <v>3795</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AB43" s="9">
         <v>3881</v>
       </c>
-      <c r="AC43" s="4">
+      <c r="AC43" s="13">
         <v>3885</v>
       </c>
-      <c r="AD43" s="5">
+      <c r="AD43" s="12">
         <v>3835</v>
       </c>
-      <c r="AE43" s="10">
+      <c r="AE43" s="9">
         <v>3921</v>
       </c>
-      <c r="AF43" s="11">
+      <c r="AF43" s="9">
         <v>3902</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="62" customHeight="1">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O44" s="1" t="s">
+      <c r="M44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O44" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P44" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="R44" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="S44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="U44" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="V44" s="4" t="s">
+      <c r="V44" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z44" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB44" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE44" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF44" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A45" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF45" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" s="8" customFormat="1" ht="62" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="9">
+        <v>95164</v>
+      </c>
+      <c r="D47" s="14">
+        <v>893637</v>
+      </c>
+      <c r="E47" s="11">
+        <v>689643</v>
+      </c>
+      <c r="F47" s="11">
+        <v>2180980</v>
+      </c>
+      <c r="G47" s="11">
+        <v>562383</v>
+      </c>
+      <c r="H47" s="11">
+        <v>4497870</v>
+      </c>
+      <c r="I47" s="11">
+        <v>1173389</v>
+      </c>
+      <c r="J47" s="11">
+        <v>135841</v>
+      </c>
+      <c r="K47" s="11">
+        <v>700051</v>
+      </c>
+      <c r="L47" s="11">
+        <v>208179</v>
+      </c>
+      <c r="M47" s="11">
+        <v>1000</v>
+      </c>
+      <c r="N47" s="11">
+        <v>620140</v>
+      </c>
+      <c r="O47" s="11">
+        <v>886510</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="R47" s="13">
+        <v>154198</v>
+      </c>
+      <c r="S47" s="13">
+        <v>71322</v>
+      </c>
+      <c r="T47" s="11">
+        <v>985266</v>
+      </c>
+      <c r="U47" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="V47" s="11">
+        <v>1588894</v>
+      </c>
+      <c r="W47" s="11">
+        <v>375387</v>
+      </c>
+      <c r="X47" s="11">
+        <v>22957</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>570887</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>51991</v>
+      </c>
+      <c r="AA47" s="11">
+        <v>1796636</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>426060</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>170888</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>655348</v>
+      </c>
+      <c r="AE47" s="11">
+        <v>990858</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>990858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A48" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="9">
+        <v>47589</v>
+      </c>
+      <c r="D48" s="14">
+        <v>446853</v>
+      </c>
+      <c r="E48" s="11">
+        <v>344837</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1090516</v>
+      </c>
+      <c r="G48" s="11">
+        <v>281204</v>
+      </c>
+      <c r="H48" s="11">
+        <v>2248992</v>
+      </c>
+      <c r="I48" s="11">
+        <v>586722</v>
+      </c>
+      <c r="J48" s="11">
+        <v>67926</v>
+      </c>
+      <c r="K48" s="11">
+        <v>350041</v>
+      </c>
+      <c r="L48" s="11">
+        <v>104093</v>
+      </c>
+      <c r="M48" s="11">
+        <v>500</v>
+      </c>
+      <c r="N48" s="11">
+        <v>310075</v>
+      </c>
+      <c r="O48" s="11">
+        <v>443264</v>
+      </c>
+      <c r="P48" s="11">
+        <v>445335</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>389559</v>
+      </c>
+      <c r="R48" s="11">
+        <v>77100</v>
+      </c>
+      <c r="S48" s="11">
+        <v>35661</v>
+      </c>
+      <c r="T48" s="11">
+        <v>492658</v>
+      </c>
+      <c r="U48" s="11">
+        <v>304302</v>
+      </c>
+      <c r="V48" s="11">
+        <v>794528</v>
+      </c>
+      <c r="W48" s="11">
+        <v>187722</v>
+      </c>
+      <c r="X48" s="11">
+        <v>11480</v>
+      </c>
+      <c r="Y48" s="11">
+        <v>285453</v>
+      </c>
+      <c r="Z48" s="11">
+        <v>25997</v>
+      </c>
+      <c r="AA48" s="11">
+        <v>898419</v>
+      </c>
+      <c r="AB48" s="11">
+        <v>213044</v>
+      </c>
+      <c r="AC48" s="11">
+        <v>85446</v>
+      </c>
+      <c r="AD48" s="11">
+        <v>327691</v>
+      </c>
+      <c r="AE48" s="11">
+        <v>495456</v>
+      </c>
+      <c r="AF48" s="11">
+        <v>495456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A49" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0.376</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0.376</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0.373</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="O49" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="P49" s="11">
+        <v>0.378</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>0.373</v>
+      </c>
+      <c r="R49" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="S49" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="T49" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="U49" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="V49" s="11">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="W49" s="11">
+        <v>0.379</v>
+      </c>
+      <c r="X49" s="11">
+        <v>0.379</v>
+      </c>
+      <c r="Y49" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="Z49" s="11">
+        <v>0.372</v>
+      </c>
+      <c r="AA49" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="AB49" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="AC49" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="AD49" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="AE49" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="AF49" s="11">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0.121</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0.126</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.124</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0.124</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0.123</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0.128</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0.114</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="O50" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="P50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="R50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="S50" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="T50" s="11">
+        <v>0.124</v>
+      </c>
+      <c r="U50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="V50" s="11">
+        <v>0.128</v>
+      </c>
+      <c r="W50" s="11">
+        <v>0.124</v>
+      </c>
+      <c r="X50" s="11">
+        <v>0.124</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="AA50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="AB50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="AC50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="AD50" s="11">
+        <v>0.123</v>
+      </c>
+      <c r="AE50" s="11">
+        <v>0.129</v>
+      </c>
+      <c r="AF50" s="11">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A51" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0.126</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0.128</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="L51" s="11">
+        <v>124</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="P51" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="R51" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="S51" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="T51" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="U51" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="V51" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="W51" s="11">
+        <v>0.128</v>
+      </c>
+      <c r="X51" s="11">
+        <v>0.124</v>
+      </c>
+      <c r="Y51" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>0.128</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="AB51" s="11">
+        <v>0.126</v>
+      </c>
+      <c r="AC51" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="AD51" s="11">
+        <v>0.127</v>
+      </c>
+      <c r="AE51" s="11">
+        <v>0.127</v>
+      </c>
+      <c r="AF51" s="11">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A52" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0.374</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0.377</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0.373</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="P52" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>0.378</v>
+      </c>
+      <c r="R52" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="S52" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="T52" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="U52" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="V52" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="W52" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="X52" s="11">
+        <v>0.371</v>
+      </c>
+      <c r="Y52" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="Z52" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="AA52" s="11">
+        <v>0.374</v>
+      </c>
+      <c r="AB52" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="AC52" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="AD52" s="11">
+        <v>0.376</v>
+      </c>
+      <c r="AE52" s="11">
+        <v>0.373</v>
+      </c>
+      <c r="AF52" s="11">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="9">
+        <v>2</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="R53" s="11">
+        <v>0</v>
+      </c>
+      <c r="S53" s="11">
+        <v>0</v>
+      </c>
+      <c r="T53" s="11">
+        <v>0</v>
+      </c>
+      <c r="U53" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="V53" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="W44" s="4" t="s">
+      <c r="W53" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X44" s="1" t="s">
+      <c r="X53" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="Y53" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="Z53" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="AA44" s="1" t="s">
+      <c r="AA53" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="AB44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC44" s="4" t="s">
+      <c r="AB53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AD44" s="4" t="s">
+      <c r="AD53" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AE44" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF44" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" ht="62" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF45" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" s="9" customFormat="1" ht="62" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-    </row>
-    <row r="47" spans="1:32" ht="62" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="AE53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF53" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A54" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="1">
-        <v>95164</v>
-      </c>
-      <c r="D47" s="6">
-        <v>893637</v>
-      </c>
-      <c r="E47">
-        <v>689643</v>
-      </c>
-      <c r="F47">
-        <v>2180980</v>
-      </c>
-      <c r="G47">
-        <v>562383</v>
-      </c>
-      <c r="H47">
-        <v>4497870</v>
-      </c>
-      <c r="I47">
-        <v>1173389</v>
-      </c>
-      <c r="J47">
-        <v>135841</v>
-      </c>
-      <c r="K47">
-        <v>700051</v>
-      </c>
-      <c r="L47">
-        <v>208179</v>
-      </c>
-      <c r="M47">
-        <v>1000</v>
-      </c>
-      <c r="N47">
-        <v>620140</v>
-      </c>
-      <c r="O47">
-        <v>886510</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="R47" s="4">
-        <v>154198</v>
-      </c>
-      <c r="S47" s="4">
-        <v>71322</v>
-      </c>
-      <c r="T47">
-        <v>985266</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="V47">
-        <v>1588894</v>
-      </c>
-      <c r="W47">
-        <v>375387</v>
-      </c>
-      <c r="X47">
-        <v>22957</v>
-      </c>
-      <c r="Y47">
-        <v>570887</v>
-      </c>
-      <c r="Z47">
-        <v>51991</v>
-      </c>
-      <c r="AA47">
-        <v>1796636</v>
-      </c>
-      <c r="AB47">
-        <v>426060</v>
-      </c>
-      <c r="AC47">
-        <v>170888</v>
-      </c>
-      <c r="AD47">
-        <v>655348</v>
-      </c>
-      <c r="AE47">
-        <v>990858</v>
-      </c>
-      <c r="AF47">
-        <v>990858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" ht="62" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="B54" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="9">
+        <v>17846</v>
+      </c>
+      <c r="D54" s="14">
+        <v>167715</v>
+      </c>
+      <c r="E54" s="11">
+        <v>129318</v>
+      </c>
+      <c r="F54" s="11">
+        <v>409134</v>
+      </c>
+      <c r="G54" s="11">
+        <v>105098</v>
+      </c>
+      <c r="H54" s="11">
+        <v>842031</v>
+      </c>
+      <c r="I54" s="13">
+        <v>220041</v>
+      </c>
+      <c r="J54" s="11">
+        <v>25535</v>
+      </c>
+      <c r="K54" s="11">
+        <v>131182</v>
+      </c>
+      <c r="L54" s="11">
+        <v>38909</v>
+      </c>
+      <c r="M54" s="13">
+        <v>190</v>
+      </c>
+      <c r="N54" s="11">
+        <v>116204</v>
+      </c>
+      <c r="O54" s="11">
+        <v>166053</v>
+      </c>
+      <c r="P54" s="11">
+        <v>166730</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>146082</v>
+      </c>
+      <c r="R54" s="11">
+        <v>28939</v>
+      </c>
+      <c r="S54" s="11">
+        <v>13407</v>
+      </c>
+      <c r="T54" s="11">
+        <v>184763</v>
+      </c>
+      <c r="U54" s="11">
+        <v>114060</v>
+      </c>
+      <c r="V54" s="11">
+        <v>297268</v>
+      </c>
+      <c r="W54" s="11">
+        <v>70385</v>
+      </c>
+      <c r="X54" s="11">
+        <v>3819</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>107116</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>9737</v>
+      </c>
+      <c r="AA54" s="11">
+        <v>336575</v>
+      </c>
+      <c r="AB54" s="11">
+        <v>79874</v>
+      </c>
+      <c r="AC54" s="11">
+        <v>32118</v>
+      </c>
+      <c r="AD54" s="11">
+        <v>123225</v>
+      </c>
+      <c r="AE54" s="11">
+        <v>149330</v>
+      </c>
+      <c r="AF54" s="11">
+        <v>148971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A55" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="1">
-        <v>47589</v>
-      </c>
-      <c r="D48" s="6">
-        <v>446853</v>
-      </c>
-      <c r="E48">
-        <v>344837</v>
-      </c>
-      <c r="F48">
-        <v>1090516</v>
-      </c>
-      <c r="G48">
-        <v>281204</v>
-      </c>
-      <c r="H48">
-        <v>2248992</v>
-      </c>
-      <c r="I48">
-        <v>586722</v>
-      </c>
-      <c r="J48">
-        <v>67926</v>
-      </c>
-      <c r="K48">
-        <v>350041</v>
-      </c>
-      <c r="L48">
-        <v>104093</v>
-      </c>
-      <c r="M48">
-        <v>500</v>
-      </c>
-      <c r="N48">
-        <v>310075</v>
-      </c>
-      <c r="O48">
-        <v>443264</v>
-      </c>
-      <c r="P48">
-        <v>445335</v>
-      </c>
-      <c r="Q48">
-        <v>389559</v>
-      </c>
-      <c r="R48">
-        <v>77100</v>
-      </c>
-      <c r="S48">
-        <v>35661</v>
-      </c>
-      <c r="T48">
-        <v>492658</v>
-      </c>
-      <c r="U48">
-        <v>267863</v>
-      </c>
-      <c r="V48">
-        <v>794528</v>
-      </c>
-      <c r="W48">
-        <v>187722</v>
-      </c>
-      <c r="X48">
-        <v>11480</v>
-      </c>
-      <c r="Y48">
-        <v>285453</v>
-      </c>
-      <c r="Z48">
-        <v>25997</v>
-      </c>
-      <c r="AA48">
-        <v>898419</v>
-      </c>
-      <c r="AB48">
-        <v>213044</v>
-      </c>
-      <c r="AC48">
-        <v>85446</v>
-      </c>
-      <c r="AD48">
-        <v>327691</v>
-      </c>
-      <c r="AE48">
-        <v>495456</v>
-      </c>
-      <c r="AF48">
-        <v>495456</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" ht="62" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="B55" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="9">
+        <v>8906</v>
+      </c>
+      <c r="D55" s="14">
+        <v>84071</v>
+      </c>
+      <c r="E55" s="11">
+        <v>64656</v>
+      </c>
+      <c r="F55" s="11">
+        <v>204712</v>
+      </c>
+      <c r="G55" s="11">
+        <v>52510</v>
+      </c>
+      <c r="H55" s="11">
+        <v>422157</v>
+      </c>
+      <c r="I55" s="11">
+        <v>110052</v>
+      </c>
+      <c r="J55" s="11">
+        <v>12747</v>
+      </c>
+      <c r="K55" s="11">
+        <v>65552</v>
+      </c>
+      <c r="L55" s="11">
+        <v>19402</v>
+      </c>
+      <c r="M55" s="11">
+        <v>87</v>
+      </c>
+      <c r="N55" s="11">
+        <v>58243</v>
+      </c>
+      <c r="O55" s="11">
+        <v>82822</v>
+      </c>
+      <c r="P55" s="11">
+        <v>83377</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>73256</v>
+      </c>
+      <c r="R55" s="11">
+        <v>14444</v>
+      </c>
+      <c r="S55" s="11">
+        <v>6699</v>
+      </c>
+      <c r="T55" s="11">
+        <v>92468</v>
+      </c>
+      <c r="U55" s="11">
+        <v>57059</v>
+      </c>
+      <c r="V55" s="11">
+        <v>148168</v>
+      </c>
+      <c r="W55" s="11">
+        <v>35152</v>
+      </c>
+      <c r="X55" s="11">
+        <v>2143</v>
+      </c>
+      <c r="Y55" s="11">
+        <v>53561</v>
+      </c>
+      <c r="Z55" s="11">
+        <v>4903</v>
+      </c>
+      <c r="AA55" s="11">
+        <v>168668</v>
+      </c>
+      <c r="AB55" s="11">
+        <v>39980</v>
+      </c>
+      <c r="AC55" s="11">
+        <v>16026</v>
+      </c>
+      <c r="AD55" s="11">
+        <v>61684</v>
+      </c>
+      <c r="AE55" s="11">
+        <v>79099</v>
+      </c>
+      <c r="AF55" s="11">
+        <v>79294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.376</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0.376</v>
-      </c>
-      <c r="E49">
-        <v>0.374</v>
-      </c>
-      <c r="F49">
-        <v>0.375</v>
-      </c>
-      <c r="G49">
-        <v>0.374</v>
-      </c>
-      <c r="H49">
-        <v>0.373</v>
-      </c>
-      <c r="I49">
-        <v>0.375</v>
-      </c>
-      <c r="J49">
-        <v>0.376</v>
-      </c>
-      <c r="K49">
-        <v>0.374</v>
-      </c>
-      <c r="L49">
-        <v>0.374</v>
-      </c>
-      <c r="M49">
-        <v>0.38</v>
-      </c>
-      <c r="N49">
-        <v>0.376</v>
-      </c>
-      <c r="O49">
-        <v>0.374</v>
-      </c>
-      <c r="P49">
-        <v>0.378</v>
-      </c>
-      <c r="Q49">
-        <v>0.373</v>
-      </c>
-      <c r="R49">
-        <v>0.374</v>
-      </c>
-      <c r="S49">
-        <v>0.374</v>
-      </c>
-      <c r="T49">
-        <v>0.375</v>
-      </c>
-      <c r="U49">
-        <v>0.374</v>
-      </c>
-      <c r="V49">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="W49">
-        <v>0.379</v>
-      </c>
-      <c r="X49">
-        <v>0.379</v>
-      </c>
-      <c r="Y49">
-        <v>0.376</v>
-      </c>
-      <c r="Z49">
-        <v>0.372</v>
-      </c>
-      <c r="AA49">
-        <v>0.376</v>
-      </c>
-      <c r="AB49">
-        <v>0.376</v>
-      </c>
-      <c r="AC49">
-        <v>0.375</v>
-      </c>
-      <c r="AD49">
-        <v>0.375</v>
-      </c>
-      <c r="AE49">
-        <v>0.375</v>
-      </c>
-      <c r="AF49">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" ht="62" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="B56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="9">
+        <v>8940</v>
+      </c>
+      <c r="D56" s="14">
+        <v>83644</v>
+      </c>
+      <c r="E56" s="11">
+        <v>64662</v>
+      </c>
+      <c r="F56" s="11">
+        <v>204422</v>
+      </c>
+      <c r="G56" s="11">
+        <v>52588</v>
+      </c>
+      <c r="H56" s="11">
+        <v>419874</v>
+      </c>
+      <c r="I56" s="11">
+        <v>109989</v>
+      </c>
+      <c r="J56" s="11">
+        <v>12788</v>
+      </c>
+      <c r="K56" s="11">
+        <v>65630</v>
+      </c>
+      <c r="L56" s="11">
+        <v>19507</v>
+      </c>
+      <c r="M56" s="11">
+        <v>103</v>
+      </c>
+      <c r="N56" s="11">
+        <v>57961</v>
+      </c>
+      <c r="O56" s="11">
+        <v>83231</v>
+      </c>
+      <c r="P56" s="11">
+        <v>83353</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>72826</v>
+      </c>
+      <c r="R56" s="11">
+        <v>14495</v>
+      </c>
+      <c r="S56" s="11">
+        <v>6708</v>
+      </c>
+      <c r="T56" s="11">
+        <v>92295</v>
+      </c>
+      <c r="U56" s="11">
+        <v>57001</v>
+      </c>
+      <c r="V56" s="11">
+        <v>149100</v>
+      </c>
+      <c r="W56" s="11">
+        <v>35233</v>
+      </c>
+      <c r="X56" s="11">
+        <v>1676</v>
+      </c>
+      <c r="Y56" s="11">
+        <v>53555</v>
+      </c>
+      <c r="Z56" s="11">
+        <v>4834</v>
+      </c>
+      <c r="AA56" s="11">
+        <v>167907</v>
+      </c>
+      <c r="AB56" s="11">
+        <v>39894</v>
+      </c>
+      <c r="AC56" s="11">
+        <v>16092</v>
+      </c>
+      <c r="AD56" s="11">
+        <v>61541</v>
+      </c>
+      <c r="AE56" s="11">
+        <v>70231</v>
+      </c>
+      <c r="AF56" s="11">
+        <v>69677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.121</v>
-      </c>
-      <c r="D50" s="6">
-        <v>0.126</v>
-      </c>
-      <c r="E50">
-        <v>0.124</v>
-      </c>
-      <c r="F50">
-        <v>0.126</v>
-      </c>
-      <c r="G50">
-        <v>0.124</v>
-      </c>
-      <c r="H50">
-        <v>0.125</v>
-      </c>
-      <c r="I50">
-        <v>0.125</v>
-      </c>
-      <c r="J50">
-        <v>0.123</v>
-      </c>
-      <c r="K50">
-        <v>0.125</v>
-      </c>
-      <c r="L50">
-        <v>0.128</v>
-      </c>
-      <c r="M50">
-        <v>0.114</v>
-      </c>
-      <c r="N50">
-        <v>0.125</v>
-      </c>
-      <c r="O50">
-        <v>0.126</v>
-      </c>
-      <c r="P50">
-        <v>0.125</v>
-      </c>
-      <c r="Q50">
-        <v>0.125</v>
-      </c>
-      <c r="R50">
-        <v>0.125</v>
-      </c>
-      <c r="S50">
-        <v>0.12</v>
-      </c>
-      <c r="T50">
-        <v>0.124</v>
-      </c>
-      <c r="U50">
-        <v>0.125</v>
-      </c>
-      <c r="V50">
-        <v>0.128</v>
-      </c>
-      <c r="W50">
-        <v>0.124</v>
-      </c>
-      <c r="X50">
-        <v>0.124</v>
-      </c>
-      <c r="Y50">
-        <v>0.125</v>
-      </c>
-      <c r="Z50">
-        <v>0.126</v>
-      </c>
-      <c r="AA50">
-        <v>0.125</v>
-      </c>
-      <c r="AB50">
-        <v>0.125</v>
-      </c>
-      <c r="AC50">
-        <v>0.125</v>
-      </c>
-      <c r="AD50">
-        <v>0.123</v>
-      </c>
-      <c r="AE50">
-        <v>0.129</v>
-      </c>
-      <c r="AF50">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" ht="62" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="B57" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="9">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0.505</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="G57" s="11">
+        <v>499</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0.505</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0.502</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0.499</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="N57" s="11">
+        <v>0.502</v>
+      </c>
+      <c r="O57" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="P57" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>0.504</v>
+      </c>
+      <c r="R57" s="11">
+        <v>0.499</v>
+      </c>
+      <c r="S57" s="11">
+        <v>0.499</v>
+      </c>
+      <c r="T57" s="11">
+        <v>0.502</v>
+      </c>
+      <c r="U57" s="11">
+        <v>0.502</v>
+      </c>
+      <c r="V57" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="W57" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="X57" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y57" s="11">
+        <v>0.499</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="AA57" s="11">
+        <v>0.502</v>
+      </c>
+      <c r="AB57" s="11">
+        <v>0.502</v>
+      </c>
+      <c r="AC57" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AD57" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="AE57" s="11">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="AF57" s="11">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A58" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0.126</v>
-      </c>
-      <c r="E51">
-        <v>0.128</v>
-      </c>
-      <c r="F51">
-        <v>0.125</v>
-      </c>
-      <c r="G51">
-        <v>0.126</v>
-      </c>
-      <c r="H51">
-        <v>0.126</v>
-      </c>
-      <c r="I51">
-        <v>0.126</v>
-      </c>
-      <c r="J51">
-        <v>0.125</v>
-      </c>
-      <c r="K51">
-        <v>0.125</v>
-      </c>
-      <c r="L51">
-        <v>124</v>
-      </c>
-      <c r="M51">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="N51">
-        <v>0.126</v>
-      </c>
-      <c r="O51">
-        <v>0.125</v>
-      </c>
-      <c r="P51">
-        <v>0.125</v>
-      </c>
-      <c r="Q51">
-        <v>0.126</v>
-      </c>
-      <c r="R51">
-        <v>0.125</v>
-      </c>
-      <c r="S51">
-        <v>0.13</v>
-      </c>
-      <c r="T51">
-        <v>0.126</v>
-      </c>
-      <c r="U51">
-        <v>0.126</v>
-      </c>
-      <c r="V51">
-        <v>0.125</v>
-      </c>
-      <c r="W51">
-        <v>0.128</v>
-      </c>
-      <c r="X51">
-        <v>0.124</v>
-      </c>
-      <c r="Y51">
-        <v>0.125</v>
-      </c>
-      <c r="Z51">
-        <v>0.128</v>
-      </c>
-      <c r="AA51">
-        <v>0.126</v>
-      </c>
-      <c r="AB51">
-        <v>0.126</v>
-      </c>
-      <c r="AC51">
-        <v>0.125</v>
-      </c>
-      <c r="AD51">
-        <v>0.127</v>
-      </c>
-      <c r="AE51">
-        <v>0.127</v>
-      </c>
-      <c r="AF51">
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" ht="62" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="B58" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0.499</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0.498</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0.499</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0.498</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="L58" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0.499</v>
+      </c>
+      <c r="O58" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="P58" s="11">
+        <v>0.502</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>0.498</v>
+      </c>
+      <c r="R58" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="S58" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="T58" s="11">
+        <v>0.499</v>
+      </c>
+      <c r="U58" s="11">
+        <v>0.498</v>
+      </c>
+      <c r="V58" s="11">
+        <v>0.504</v>
+      </c>
+      <c r="W58" s="11">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="X58" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="Y58" s="11">
+        <v>0.502</v>
+      </c>
+      <c r="Z58" s="11">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AA58" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="AB58" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="AC58" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AD58" s="11">
+        <v>0.499</v>
+      </c>
+      <c r="AE58" s="11">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AF58" s="11">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A59" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.374</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.374</v>
-      </c>
-      <c r="E52">
-        <v>0.374</v>
-      </c>
-      <c r="F52">
-        <v>0.375</v>
-      </c>
-      <c r="G52">
-        <v>0.376</v>
-      </c>
-      <c r="H52">
-        <v>0.377</v>
-      </c>
-      <c r="I52">
-        <v>0.376</v>
-      </c>
-      <c r="J52">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="K52">
-        <v>0.376</v>
-      </c>
-      <c r="L52">
-        <v>0.373</v>
-      </c>
-      <c r="M52">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="N52">
-        <v>0.375</v>
-      </c>
-      <c r="O52">
-        <v>0.376</v>
-      </c>
-      <c r="P52">
-        <v>0.374</v>
-      </c>
-      <c r="Q52">
-        <v>0.378</v>
-      </c>
-      <c r="R52">
-        <v>0.376</v>
-      </c>
-      <c r="S52">
-        <v>0.376</v>
-      </c>
-      <c r="T52">
-        <v>0.375</v>
-      </c>
-      <c r="U52">
-        <v>0.375</v>
-      </c>
-      <c r="V52">
-        <v>0.374</v>
-      </c>
-      <c r="W52">
-        <v>0.374</v>
-      </c>
-      <c r="X52">
-        <v>0.371</v>
-      </c>
-      <c r="Y52">
-        <v>0.375</v>
-      </c>
-      <c r="Z52">
-        <v>0.376</v>
-      </c>
-      <c r="AA52">
-        <v>0.374</v>
-      </c>
-      <c r="AB52">
-        <v>0.376</v>
-      </c>
-      <c r="AC52">
-        <v>0.375</v>
-      </c>
-      <c r="AD52">
-        <v>0.376</v>
-      </c>
-      <c r="AE52">
-        <v>0.373</v>
-      </c>
-      <c r="AF52">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" ht="62" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="B59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="9">
+        <v>14071</v>
+      </c>
+      <c r="D59" s="14">
+        <v>144300</v>
+      </c>
+      <c r="E59" s="11">
+        <v>112958</v>
+      </c>
+      <c r="F59" s="11">
+        <v>372051</v>
+      </c>
+      <c r="G59" s="11">
+        <v>95631</v>
+      </c>
+      <c r="H59" s="11">
+        <v>711045</v>
+      </c>
+      <c r="I59" s="11">
+        <v>203053</v>
+      </c>
+      <c r="J59" s="11">
+        <v>23164</v>
+      </c>
+      <c r="K59" s="11">
+        <v>121290</v>
+      </c>
+      <c r="L59" s="11">
+        <v>31576</v>
+      </c>
+      <c r="M59" s="11">
+        <v>27</v>
+      </c>
+      <c r="N59" s="11">
+        <v>100690</v>
+      </c>
+      <c r="O59" s="11">
+        <v>153451</v>
+      </c>
+      <c r="P59" s="11">
+        <v>135656</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>114475</v>
+      </c>
+      <c r="R59" s="11">
+        <v>26448</v>
+      </c>
+      <c r="S59" s="11">
+        <v>12221</v>
+      </c>
+      <c r="T59" s="11">
+        <v>163549</v>
+      </c>
+      <c r="U59" s="11">
+        <v>101449</v>
+      </c>
+      <c r="V59" s="11">
+        <v>235526</v>
+      </c>
+      <c r="W59" s="11">
+        <v>53092</v>
+      </c>
+      <c r="X59" s="11">
+        <v>3693</v>
+      </c>
+      <c r="Y59" s="11">
+        <v>95598</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>8850</v>
+      </c>
+      <c r="AA59" s="11">
+        <v>167907</v>
+      </c>
+      <c r="AB59" s="11">
+        <v>40695</v>
+      </c>
+      <c r="AC59" s="11">
+        <v>24631</v>
+      </c>
+      <c r="AD59" s="11">
+        <v>99366</v>
+      </c>
+      <c r="AE59" s="11">
+        <v>134457</v>
+      </c>
+      <c r="AF59" s="11">
+        <v>134407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A60" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="V53" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="W53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X53" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z53" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA53" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF53" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" ht="62" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="B60" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="9">
+        <v>7053</v>
+      </c>
+      <c r="D60" s="14">
+        <v>72806</v>
+      </c>
+      <c r="E60" s="11">
+        <v>56802</v>
+      </c>
+      <c r="F60" s="11">
+        <v>187268</v>
+      </c>
+      <c r="G60" s="11">
+        <v>47959</v>
+      </c>
+      <c r="H60" s="11">
+        <v>358060</v>
+      </c>
+      <c r="I60" s="11">
+        <v>102036</v>
+      </c>
+      <c r="J60" s="11">
+        <v>11643</v>
+      </c>
+      <c r="K60" s="11">
+        <v>60866</v>
+      </c>
+      <c r="L60" s="11">
+        <v>15836</v>
+      </c>
+      <c r="M60" s="11">
+        <v>14</v>
+      </c>
+      <c r="N60" s="11">
+        <v>50724</v>
+      </c>
+      <c r="O60" s="11">
+        <v>76865</v>
+      </c>
+      <c r="P60" s="11">
+        <v>68193</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>57858</v>
+      </c>
+      <c r="R60" s="11">
+        <v>13281</v>
+      </c>
+      <c r="S60" s="11">
+        <v>6126</v>
+      </c>
+      <c r="T60" s="11">
+        <v>82217</v>
+      </c>
+      <c r="U60" s="11">
+        <v>50923</v>
+      </c>
+      <c r="V60" s="11">
+        <v>117802</v>
+      </c>
+      <c r="W60" s="11">
+        <v>26670</v>
+      </c>
+      <c r="X60" s="11">
+        <v>2087</v>
+      </c>
+      <c r="Y60" s="11">
+        <v>48093</v>
+      </c>
+      <c r="Z60" s="11">
+        <v>4487</v>
+      </c>
+      <c r="AA60" s="11">
+        <v>142129</v>
+      </c>
+      <c r="AB60" s="11">
+        <v>20552</v>
+      </c>
+      <c r="AC60" s="11">
+        <v>12364</v>
+      </c>
+      <c r="AD60" s="11">
+        <v>50209</v>
+      </c>
+      <c r="AE60" s="11">
+        <v>71494</v>
+      </c>
+      <c r="AF60" s="11">
+        <v>71790</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A61" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="1">
-        <v>17846</v>
-      </c>
-      <c r="D54" s="6">
-        <v>167715</v>
-      </c>
-      <c r="E54">
-        <v>129318</v>
-      </c>
-      <c r="F54">
-        <v>409134</v>
-      </c>
-      <c r="G54">
-        <v>105098</v>
-      </c>
-      <c r="H54">
-        <v>842031</v>
-      </c>
-      <c r="I54" s="4">
-        <v>220041</v>
-      </c>
-      <c r="J54">
-        <v>25535</v>
-      </c>
-      <c r="K54">
-        <v>131182</v>
-      </c>
-      <c r="L54">
-        <v>38909</v>
-      </c>
-      <c r="M54" s="4">
-        <v>190</v>
-      </c>
-      <c r="N54">
-        <v>116204</v>
-      </c>
-      <c r="O54">
-        <v>166053</v>
-      </c>
-      <c r="P54">
-        <v>166730</v>
-      </c>
-      <c r="Q54">
-        <v>146082</v>
-      </c>
-      <c r="R54">
-        <v>28939</v>
-      </c>
-      <c r="S54">
-        <v>13407</v>
-      </c>
-      <c r="T54">
-        <v>184763</v>
-      </c>
-      <c r="U54">
-        <v>100438</v>
-      </c>
-      <c r="V54">
-        <v>297268</v>
-      </c>
-      <c r="W54">
-        <v>70385</v>
-      </c>
-      <c r="X54">
-        <v>3819</v>
-      </c>
-      <c r="Y54">
-        <v>107116</v>
-      </c>
-      <c r="Z54">
-        <v>9737</v>
-      </c>
-      <c r="AA54">
-        <v>336575</v>
-      </c>
-      <c r="AB54">
-        <v>79874</v>
-      </c>
-      <c r="AC54">
-        <v>32118</v>
-      </c>
-      <c r="AD54">
-        <v>123225</v>
-      </c>
-      <c r="AE54" s="13">
-        <v>149330</v>
-      </c>
-      <c r="AF54" s="12">
-        <v>148971</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" ht="62" customHeight="1">
-      <c r="A55" s="2" t="s">
+      <c r="B61" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="9">
+        <v>7018</v>
+      </c>
+      <c r="D61" s="14">
+        <v>71494</v>
+      </c>
+      <c r="E61" s="11">
+        <v>56156</v>
+      </c>
+      <c r="F61" s="11">
+        <v>184783</v>
+      </c>
+      <c r="G61" s="11">
+        <v>47672</v>
+      </c>
+      <c r="H61" s="11">
+        <v>352985</v>
+      </c>
+      <c r="I61" s="11">
+        <v>101017</v>
+      </c>
+      <c r="J61" s="11">
+        <v>11521</v>
+      </c>
+      <c r="K61" s="11">
+        <v>60424</v>
+      </c>
+      <c r="L61" s="11">
+        <v>15740</v>
+      </c>
+      <c r="M61" s="11">
+        <v>13</v>
+      </c>
+      <c r="N61" s="11">
+        <v>49966</v>
+      </c>
+      <c r="O61" s="11">
+        <v>76586</v>
+      </c>
+      <c r="P61" s="11">
+        <v>67463</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>56617</v>
+      </c>
+      <c r="R61" s="11">
+        <v>13167</v>
+      </c>
+      <c r="S61" s="11">
+        <v>6095</v>
+      </c>
+      <c r="T61" s="11">
+        <v>81332</v>
+      </c>
+      <c r="U61" s="11">
+        <v>50526</v>
+      </c>
+      <c r="V61" s="11">
+        <v>117724</v>
+      </c>
+      <c r="W61" s="11">
+        <v>26422</v>
+      </c>
+      <c r="X61" s="11">
+        <v>1606</v>
+      </c>
+      <c r="Y61" s="11">
+        <v>47505</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>4363</v>
+      </c>
+      <c r="AA61" s="11">
+        <v>140111</v>
+      </c>
+      <c r="AB61" s="11">
+        <v>20143</v>
+      </c>
+      <c r="AC61" s="11">
+        <v>12267</v>
+      </c>
+      <c r="AD61" s="11">
+        <v>49157</v>
+      </c>
+      <c r="AE61" s="11">
+        <v>62963</v>
+      </c>
+      <c r="AF61" s="11">
+        <v>62617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A62" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="1">
-        <v>8906</v>
-      </c>
-      <c r="D55" s="6">
-        <v>84071</v>
-      </c>
-      <c r="E55">
-        <v>64656</v>
-      </c>
-      <c r="F55">
-        <v>204712</v>
-      </c>
-      <c r="G55">
-        <v>52510</v>
-      </c>
-      <c r="H55">
-        <v>422157</v>
-      </c>
-      <c r="I55">
-        <v>110052</v>
-      </c>
-      <c r="J55">
-        <v>12747</v>
-      </c>
-      <c r="K55">
-        <v>65552</v>
-      </c>
-      <c r="L55">
-        <v>19402</v>
-      </c>
-      <c r="M55">
-        <v>87</v>
-      </c>
-      <c r="N55">
-        <v>58243</v>
-      </c>
-      <c r="O55">
-        <v>82822</v>
-      </c>
-      <c r="P55">
-        <v>83377</v>
-      </c>
-      <c r="Q55">
-        <v>73256</v>
-      </c>
-      <c r="R55">
-        <v>14444</v>
-      </c>
-      <c r="S55">
-        <v>6699</v>
-      </c>
-      <c r="T55">
-        <v>92468</v>
-      </c>
-      <c r="U55">
-        <v>50214</v>
-      </c>
-      <c r="V55">
-        <v>148168</v>
-      </c>
-      <c r="W55">
-        <v>35152</v>
-      </c>
-      <c r="X55">
-        <v>2143</v>
-      </c>
-      <c r="Y55">
-        <v>53561</v>
-      </c>
-      <c r="Z55">
-        <v>4903</v>
-      </c>
-      <c r="AA55">
-        <v>168668</v>
-      </c>
-      <c r="AB55">
-        <v>39980</v>
-      </c>
-      <c r="AC55">
-        <v>16026</v>
-      </c>
-      <c r="AD55">
-        <v>61684</v>
-      </c>
-      <c r="AE55" s="13">
-        <v>79099</v>
-      </c>
-      <c r="AF55" s="12">
-        <v>79294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" ht="62" customHeight="1">
-      <c r="A56" s="2" t="s">
+      <c r="B62" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="9">
+        <v>980</v>
+      </c>
+      <c r="D62" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="M62" s="11">
+        <v>27</v>
+      </c>
+      <c r="N62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="O62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="P62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>1034</v>
+      </c>
+      <c r="R62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="S62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="U62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="V62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="W62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="X62" s="11">
+        <v>971</v>
+      </c>
+      <c r="Y62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Z62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AA62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AB62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AC62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AD62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AE62" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AF62" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A63" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="1">
-        <v>8940</v>
-      </c>
-      <c r="D56" s="6">
-        <v>83644</v>
-      </c>
-      <c r="E56">
-        <v>64662</v>
-      </c>
-      <c r="F56">
-        <v>204422</v>
-      </c>
-      <c r="G56">
-        <v>52588</v>
-      </c>
-      <c r="H56">
-        <v>419874</v>
-      </c>
-      <c r="I56">
-        <v>109989</v>
-      </c>
-      <c r="J56">
-        <v>12788</v>
-      </c>
-      <c r="K56">
-        <v>65630</v>
-      </c>
-      <c r="L56">
-        <v>19507</v>
-      </c>
-      <c r="M56">
-        <v>103</v>
-      </c>
-      <c r="N56">
-        <v>57961</v>
-      </c>
-      <c r="O56">
-        <v>83231</v>
-      </c>
-      <c r="P56">
-        <v>83353</v>
-      </c>
-      <c r="Q56">
-        <v>72826</v>
-      </c>
-      <c r="R56">
-        <v>14495</v>
-      </c>
-      <c r="S56">
-        <v>6708</v>
-      </c>
-      <c r="T56">
-        <v>92295</v>
-      </c>
-      <c r="U56">
-        <v>50224</v>
-      </c>
-      <c r="V56">
-        <v>149100</v>
-      </c>
-      <c r="W56">
-        <v>35233</v>
-      </c>
-      <c r="X56">
-        <v>1676</v>
-      </c>
-      <c r="Y56">
-        <v>53555</v>
-      </c>
-      <c r="Z56">
-        <v>4834</v>
-      </c>
-      <c r="AA56">
-        <v>167907</v>
-      </c>
-      <c r="AB56">
-        <v>39894</v>
-      </c>
-      <c r="AC56">
-        <v>16092</v>
-      </c>
-      <c r="AD56">
-        <v>61541</v>
-      </c>
-      <c r="AE56" s="13">
-        <v>70231</v>
-      </c>
-      <c r="AF56" s="12">
-        <v>69677</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" ht="62" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0.505</v>
-      </c>
-      <c r="E57">
-        <v>0.501</v>
-      </c>
-      <c r="F57">
-        <v>0.501</v>
-      </c>
-      <c r="G57">
-        <v>499</v>
-      </c>
-      <c r="H57">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="I57">
-        <v>0.5</v>
-      </c>
-      <c r="J57">
-        <v>0.505</v>
-      </c>
-      <c r="K57">
-        <v>0.502</v>
-      </c>
-      <c r="L57">
-        <v>0.499</v>
-      </c>
-      <c r="M57">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="N57">
-        <v>0.502</v>
-      </c>
-      <c r="O57">
-        <v>0.501</v>
-      </c>
-      <c r="P57">
-        <v>0.501</v>
-      </c>
-      <c r="Q57">
-        <v>0.504</v>
-      </c>
-      <c r="R57">
-        <v>0.499</v>
-      </c>
-      <c r="S57">
-        <v>0.499</v>
-      </c>
-      <c r="T57">
-        <v>0.502</v>
-      </c>
-      <c r="U57">
-        <v>0.501</v>
-      </c>
-      <c r="V57">
-        <v>0.501</v>
-      </c>
-      <c r="W57">
-        <v>0.5</v>
-      </c>
-      <c r="X57">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Y57">
-        <v>0.499</v>
-      </c>
-      <c r="Z57">
-        <v>0.501</v>
-      </c>
-      <c r="AA57">
-        <v>0.502</v>
-      </c>
-      <c r="AB57">
-        <v>0.502</v>
-      </c>
-      <c r="AC57">
-        <v>0.5</v>
-      </c>
-      <c r="AD57">
-        <v>0.501</v>
-      </c>
-      <c r="AE57" s="13">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="AF57" s="12">
-        <v>0.53600000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" ht="62" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.499</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0.498</v>
-      </c>
-      <c r="E58">
-        <v>0.499</v>
-      </c>
-      <c r="F58">
-        <v>0.5</v>
-      </c>
-      <c r="G58">
-        <v>0.501</v>
-      </c>
-      <c r="H58">
-        <v>0.5</v>
-      </c>
-      <c r="I58">
-        <v>0.501</v>
-      </c>
-      <c r="J58">
-        <v>0.498</v>
-      </c>
-      <c r="K58">
-        <v>0.501</v>
-      </c>
-      <c r="L58">
-        <v>0.501</v>
-      </c>
-      <c r="M58">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="N58">
-        <v>0.499</v>
-      </c>
-      <c r="O58">
-        <v>0.501</v>
-      </c>
-      <c r="P58">
-        <v>0.502</v>
-      </c>
-      <c r="Q58">
-        <v>0.498</v>
-      </c>
-      <c r="R58">
-        <v>0.501</v>
-      </c>
-      <c r="S58">
-        <v>0.501</v>
-      </c>
-      <c r="T58">
-        <v>0.499</v>
-      </c>
-      <c r="U58">
-        <v>0.499</v>
-      </c>
-      <c r="V58">
-        <v>0.504</v>
-      </c>
-      <c r="W58">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="X58">
-        <v>0.44</v>
-      </c>
-      <c r="Y58">
-        <v>0.502</v>
-      </c>
-      <c r="Z58">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="AA58">
-        <v>0.501</v>
-      </c>
-      <c r="AB58">
-        <v>0.501</v>
-      </c>
-      <c r="AC58">
-        <v>0.5</v>
-      </c>
-      <c r="AD58">
-        <v>0.499</v>
-      </c>
-      <c r="AE58" s="13">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="AF58" s="12">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" ht="62" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="1">
-        <v>14071</v>
-      </c>
-      <c r="D59" s="6">
-        <v>144300</v>
-      </c>
-      <c r="E59">
-        <v>112958</v>
-      </c>
-      <c r="F59">
-        <v>372051</v>
-      </c>
-      <c r="G59">
-        <v>95631</v>
-      </c>
-      <c r="H59">
-        <v>711045</v>
-      </c>
-      <c r="I59">
-        <v>203053</v>
-      </c>
-      <c r="J59">
-        <v>23164</v>
-      </c>
-      <c r="K59">
-        <v>121290</v>
-      </c>
-      <c r="L59">
-        <v>31576</v>
-      </c>
-      <c r="M59">
-        <v>27</v>
-      </c>
-      <c r="N59">
-        <v>100690</v>
-      </c>
-      <c r="O59">
-        <v>153451</v>
-      </c>
-      <c r="P59">
-        <v>135656</v>
-      </c>
-      <c r="Q59">
-        <v>114475</v>
-      </c>
-      <c r="R59">
-        <v>26448</v>
-      </c>
-      <c r="S59">
-        <v>12221</v>
-      </c>
-      <c r="T59">
-        <v>163549</v>
-      </c>
-      <c r="U59">
-        <v>90455</v>
-      </c>
-      <c r="V59">
-        <v>235526</v>
-      </c>
-      <c r="W59">
-        <v>53092</v>
-      </c>
-      <c r="X59">
-        <v>3693</v>
-      </c>
-      <c r="Y59">
-        <v>95598</v>
-      </c>
-      <c r="Z59">
-        <v>8850</v>
-      </c>
-      <c r="AA59">
-        <v>167907</v>
-      </c>
-      <c r="AB59">
-        <v>40695</v>
-      </c>
-      <c r="AC59">
-        <v>24631</v>
-      </c>
-      <c r="AD59">
-        <v>99366</v>
-      </c>
-      <c r="AE59" s="13">
-        <v>134457</v>
-      </c>
-      <c r="AF59" s="12">
-        <v>134407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" ht="62" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="1">
-        <v>7053</v>
-      </c>
-      <c r="D60" s="6">
-        <v>72806</v>
-      </c>
-      <c r="E60">
-        <v>56802</v>
-      </c>
-      <c r="F60">
-        <v>187268</v>
-      </c>
-      <c r="G60">
-        <v>47959</v>
-      </c>
-      <c r="H60">
-        <v>358060</v>
-      </c>
-      <c r="I60">
-        <v>102036</v>
-      </c>
-      <c r="J60">
-        <v>11643</v>
-      </c>
-      <c r="K60">
-        <v>60866</v>
-      </c>
-      <c r="L60">
-        <v>15836</v>
-      </c>
-      <c r="M60">
-        <v>14</v>
-      </c>
-      <c r="N60">
-        <v>50724</v>
-      </c>
-      <c r="O60">
-        <v>76865</v>
-      </c>
-      <c r="P60">
-        <v>68193</v>
-      </c>
-      <c r="Q60">
-        <v>57858</v>
-      </c>
-      <c r="R60">
-        <v>13281</v>
-      </c>
-      <c r="S60">
-        <v>6126</v>
-      </c>
-      <c r="T60">
-        <v>82217</v>
-      </c>
-      <c r="U60">
-        <v>45404</v>
-      </c>
-      <c r="V60">
-        <v>117802</v>
-      </c>
-      <c r="W60">
-        <v>26670</v>
-      </c>
-      <c r="X60">
-        <v>2087</v>
-      </c>
-      <c r="Y60">
-        <v>48093</v>
-      </c>
-      <c r="Z60">
-        <v>4487</v>
-      </c>
-      <c r="AA60">
-        <v>142129</v>
-      </c>
-      <c r="AB60">
-        <v>20552</v>
-      </c>
-      <c r="AC60">
-        <v>12364</v>
-      </c>
-      <c r="AD60">
-        <v>50209</v>
-      </c>
-      <c r="AE60" s="13">
-        <v>71494</v>
-      </c>
-      <c r="AF60" s="12">
-        <v>71790</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" ht="62" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="1">
-        <v>7018</v>
-      </c>
-      <c r="D61" s="6">
-        <v>71494</v>
-      </c>
-      <c r="E61">
-        <v>56156</v>
-      </c>
-      <c r="F61">
-        <v>184783</v>
-      </c>
-      <c r="G61">
-        <v>47672</v>
-      </c>
-      <c r="H61">
-        <v>352985</v>
-      </c>
-      <c r="I61">
-        <v>101017</v>
-      </c>
-      <c r="J61">
-        <v>11521</v>
-      </c>
-      <c r="K61">
-        <v>60424</v>
-      </c>
-      <c r="L61">
-        <v>15740</v>
-      </c>
-      <c r="M61">
-        <v>13</v>
-      </c>
-      <c r="N61">
-        <v>49966</v>
-      </c>
-      <c r="O61">
-        <v>76586</v>
-      </c>
-      <c r="P61">
-        <v>67463</v>
-      </c>
-      <c r="Q61">
-        <v>56617</v>
-      </c>
-      <c r="R61">
-        <v>13167</v>
-      </c>
-      <c r="S61">
-        <v>6095</v>
-      </c>
-      <c r="T61">
-        <v>81332</v>
-      </c>
-      <c r="U61">
-        <v>45051</v>
-      </c>
-      <c r="V61">
-        <v>117724</v>
-      </c>
-      <c r="W61">
-        <v>26422</v>
-      </c>
-      <c r="X61">
-        <v>1606</v>
-      </c>
-      <c r="Y61">
-        <v>47505</v>
-      </c>
-      <c r="Z61">
-        <v>4363</v>
-      </c>
-      <c r="AA61">
-        <v>140111</v>
-      </c>
-      <c r="AB61">
-        <v>20143</v>
-      </c>
-      <c r="AC61">
-        <v>12267</v>
-      </c>
-      <c r="AD61">
-        <v>49157</v>
-      </c>
-      <c r="AE61" s="13">
-        <v>62963</v>
-      </c>
-      <c r="AF61" s="12">
-        <v>62617</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" ht="62" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="1">
-        <v>980</v>
-      </c>
-      <c r="D62" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E62">
-        <v>1000</v>
-      </c>
-      <c r="F62">
-        <v>1000</v>
-      </c>
-      <c r="G62">
-        <v>1000</v>
-      </c>
-      <c r="H62">
-        <v>1000</v>
-      </c>
-      <c r="I62">
-        <v>1000</v>
-      </c>
-      <c r="J62">
-        <v>1000</v>
-      </c>
-      <c r="K62">
-        <v>1000</v>
-      </c>
-      <c r="L62">
-        <v>1000</v>
-      </c>
-      <c r="M62">
-        <v>27</v>
-      </c>
-      <c r="N62">
-        <v>1000</v>
-      </c>
-      <c r="O62">
-        <v>1000</v>
-      </c>
-      <c r="P62">
-        <v>1000</v>
-      </c>
-      <c r="Q62">
-        <v>1034</v>
-      </c>
-      <c r="R62">
-        <v>1000</v>
-      </c>
-      <c r="S62">
-        <v>1000</v>
-      </c>
-      <c r="T62">
-        <v>1000</v>
-      </c>
-      <c r="U62">
-        <v>1000</v>
-      </c>
-      <c r="V62">
-        <v>1000</v>
-      </c>
-      <c r="W62">
-        <v>1000</v>
-      </c>
-      <c r="X62">
-        <v>971</v>
-      </c>
-      <c r="Y62">
-        <v>1000</v>
-      </c>
-      <c r="Z62">
-        <v>1000</v>
-      </c>
-      <c r="AA62">
-        <v>1000</v>
-      </c>
-      <c r="AB62">
-        <v>1000</v>
-      </c>
-      <c r="AC62">
-        <v>1000</v>
-      </c>
-      <c r="AD62">
-        <v>1000</v>
-      </c>
-      <c r="AE62" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AF62" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" ht="62" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="9">
         <v>2940</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="14">
         <v>3000</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="11">
         <v>3000</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="9">
         <v>3000</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="9">
         <v>3000</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="9">
         <v>3000</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="9">
         <v>3000</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="9">
         <v>3000</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="9">
         <v>3000</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63" s="9">
         <v>3000</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="11">
         <f>27*3</f>
         <v>81</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="11">
         <v>3000</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="9">
         <v>3000</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="9">
         <v>3000</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="11">
         <f>1034*3</f>
         <v>3102</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="11">
         <v>3000</v>
       </c>
-      <c r="S63" s="4" t="s">
+      <c r="S63" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="T63" s="4">
+      <c r="T63" s="13">
         <v>3000</v>
       </c>
-      <c r="U63" s="4">
+      <c r="U63" s="13">
         <v>3000</v>
       </c>
-      <c r="V63" s="4">
+      <c r="V63" s="13">
         <v>3000</v>
       </c>
-      <c r="W63" s="4">
+      <c r="W63" s="13">
         <v>3000</v>
       </c>
-      <c r="X63" s="4">
+      <c r="X63" s="13">
         <v>2912</v>
       </c>
-      <c r="Y63" s="4">
+      <c r="Y63" s="13">
         <v>3000</v>
       </c>
-      <c r="Z63" s="4">
+      <c r="Z63" s="13">
         <v>3000</v>
       </c>
-      <c r="AA63" s="4">
+      <c r="AA63" s="13">
         <v>3000</v>
       </c>
-      <c r="AB63" s="4">
+      <c r="AB63" s="13">
         <v>3000</v>
       </c>
-      <c r="AC63" s="4">
+      <c r="AC63" s="13">
         <v>3000</v>
       </c>
-      <c r="AD63" s="4">
+      <c r="AD63" s="13">
         <v>3000</v>
       </c>
-      <c r="AE63" s="14">
+      <c r="AE63" s="13">
         <v>3000</v>
       </c>
-      <c r="AF63" s="15">
+      <c r="AF63" s="13">
         <v>3000</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="62" customHeight="1">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A64" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="9">
         <v>14446</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="14">
         <v>148481</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="11">
         <v>114762</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="9">
         <v>376393</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="11">
         <v>96925</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="11">
         <v>722857</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="11">
         <v>205296</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="11">
         <v>23430</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="11">
         <v>121982</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="11">
         <v>32307</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="11">
         <v>27</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="11">
         <v>101985</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="11">
         <v>154706</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="11">
         <v>141267</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="11">
         <v>122358</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="11">
         <v>26979</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="11">
         <v>12221</v>
       </c>
-      <c r="T64">
+      <c r="T64" s="11">
         <v>167043</v>
       </c>
-      <c r="U64">
-        <v>92742</v>
-      </c>
-      <c r="V64">
+      <c r="U64" s="11">
+        <v>104393</v>
+      </c>
+      <c r="V64" s="11">
         <v>248370</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="11">
         <v>55265</v>
       </c>
-      <c r="X64">
+      <c r="X64" s="11">
         <v>3693</v>
       </c>
-      <c r="Y64">
+      <c r="Y64" s="11">
         <v>98003</v>
       </c>
-      <c r="Z64">
+      <c r="Z64" s="11">
         <v>8879</v>
       </c>
-      <c r="AA64">
+      <c r="AA64" s="11">
         <v>289438</v>
       </c>
-      <c r="AB64">
+      <c r="AB64" s="11">
         <v>44779</v>
       </c>
-      <c r="AC64">
+      <c r="AC64" s="11">
         <v>25077</v>
       </c>
-      <c r="AD64">
+      <c r="AD64" s="11">
         <v>102783</v>
       </c>
-      <c r="AE64" s="13">
+      <c r="AE64" s="11">
         <v>136677</v>
       </c>
-      <c r="AF64" s="12">
+      <c r="AF64" s="11">
         <v>136672</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="62" customHeight="1">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A65" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="9">
         <v>7238</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="14">
         <v>74900</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="11">
         <v>57691</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="11">
         <v>189458</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="11">
         <v>48602</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="11">
         <v>364068</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="11">
         <v>103178</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="11">
         <v>11776</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="11">
         <v>61221</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="11">
         <v>16208</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="11">
         <v>14</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="11">
         <v>51363</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="11">
         <v>77495</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="11">
         <v>70997</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="11">
         <v>61921</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="11">
         <v>13533</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="11">
         <v>6126</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="11">
         <v>83983</v>
       </c>
-      <c r="U65">
-        <v>46552</v>
-      </c>
-      <c r="V65">
+      <c r="U65" s="11">
+        <v>52400</v>
+      </c>
+      <c r="V65" s="11">
         <v>124253</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="11">
         <v>27732</v>
       </c>
-      <c r="X65">
+      <c r="X65" s="11">
         <v>2087</v>
       </c>
-      <c r="Y65">
+      <c r="Y65" s="11">
         <v>49303</v>
       </c>
-      <c r="Z65">
+      <c r="Z65" s="11">
         <v>4500</v>
       </c>
-      <c r="AA65">
+      <c r="AA65" s="11">
         <v>145837</v>
       </c>
-      <c r="AB65">
+      <c r="AB65" s="11">
         <v>22624</v>
       </c>
-      <c r="AC65">
+      <c r="AC65" s="11">
         <v>12580</v>
       </c>
-      <c r="AD65">
+      <c r="AD65" s="11">
         <v>51942</v>
       </c>
-      <c r="AE65" s="13">
+      <c r="AE65" s="11">
         <v>72642</v>
       </c>
-      <c r="AF65" s="12">
+      <c r="AF65" s="11">
         <v>72973</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="62" customHeight="1">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A66" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="9">
         <v>7208</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="14">
         <v>73581</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="11">
         <v>57071</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="11">
         <v>186935</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="11">
         <v>48323</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="11">
         <v>358789</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="11">
         <v>102118</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="11">
         <v>11654</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="11">
         <v>60761</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="11">
         <v>16099</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="11">
         <v>13</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="11">
         <v>50622</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="11">
         <v>77211</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="11">
         <v>70270</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="11">
         <v>60437</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="11">
         <v>13446</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="11">
         <v>6095</v>
       </c>
-      <c r="T66">
+      <c r="T66" s="11">
         <v>83060</v>
       </c>
-      <c r="U66">
-        <v>46190</v>
-      </c>
-      <c r="V66">
+      <c r="U66" s="11">
+        <v>51993</v>
+      </c>
+      <c r="V66" s="11">
         <v>124117</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="11">
         <v>27533</v>
       </c>
-      <c r="X66">
+      <c r="X66" s="11">
         <v>1606</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" s="11">
         <v>48700</v>
       </c>
-      <c r="Z66">
+      <c r="Z66" s="11">
         <v>4379</v>
       </c>
-      <c r="AA66">
+      <c r="AA66" s="11">
         <v>143601</v>
       </c>
-      <c r="AB66">
+      <c r="AB66" s="11">
         <v>22155</v>
       </c>
-      <c r="AC66">
+      <c r="AC66" s="11">
         <v>12497</v>
       </c>
-      <c r="AD66">
+      <c r="AD66" s="11">
         <v>50841</v>
       </c>
-      <c r="AE66" s="13">
+      <c r="AE66" s="11">
         <v>64035</v>
       </c>
-      <c r="AF66" s="12">
+      <c r="AF66" s="11">
         <v>63699</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="62" customHeight="1">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A67" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="9">
         <v>981</v>
       </c>
-      <c r="D67" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E67">
-        <v>1000</v>
-      </c>
-      <c r="F67">
-        <v>1000</v>
-      </c>
-      <c r="G67">
-        <v>1000</v>
-      </c>
-      <c r="H67">
-        <v>1000</v>
-      </c>
-      <c r="I67">
-        <v>1000</v>
-      </c>
-      <c r="J67">
-        <v>1000</v>
-      </c>
-      <c r="K67">
-        <v>1000</v>
-      </c>
-      <c r="L67">
-        <v>1000</v>
-      </c>
-      <c r="M67">
+      <c r="D67" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="M67" s="11">
         <v>27</v>
       </c>
-      <c r="N67">
-        <v>1000</v>
-      </c>
-      <c r="O67">
-        <v>1000</v>
-      </c>
-      <c r="P67">
-        <v>1000</v>
-      </c>
-      <c r="Q67">
+      <c r="N67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="O67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="P67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Q67" s="11">
         <v>1034</v>
       </c>
-      <c r="R67">
-        <v>1000</v>
-      </c>
-      <c r="S67">
-        <v>1000</v>
-      </c>
-      <c r="T67">
-        <v>1000</v>
-      </c>
-      <c r="U67">
-        <v>1000</v>
-      </c>
-      <c r="V67">
-        <v>1000</v>
-      </c>
-      <c r="W67">
-        <v>1000</v>
-      </c>
-      <c r="X67">
+      <c r="R67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="S67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="U67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="V67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="W67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="X67" s="11">
         <v>971</v>
       </c>
-      <c r="Y67">
-        <v>1000</v>
-      </c>
-      <c r="Z67">
-        <v>1000</v>
-      </c>
-      <c r="AA67">
-        <v>1000</v>
-      </c>
-      <c r="AB67">
-        <v>1000</v>
-      </c>
-      <c r="AC67">
-        <v>1000</v>
-      </c>
-      <c r="AD67">
-        <v>1000</v>
-      </c>
-      <c r="AE67" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AF67" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" ht="62" customHeight="1">
-      <c r="A68" s="1" t="s">
+      <c r="Y67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Z67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AA67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AB67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AC67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AD67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AE67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AF67" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" s="11" customFormat="1" ht="62" customHeight="1">
+      <c r="A68" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="9">
         <v>2943</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="14">
         <v>3000</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="11">
         <v>3000</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="9">
         <v>3000</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="9">
         <v>3000</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="9">
         <v>3000</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="9">
         <v>3000</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="9">
         <v>3000</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68" s="9">
         <v>3000</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68" s="9">
         <v>3000</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68" s="9">
         <v>81</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68" s="9">
         <v>3000</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="9">
         <v>3000</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="9">
         <v>3000</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="11">
         <f>1034*3</f>
         <v>3102</v>
       </c>
-      <c r="R68" s="1">
+      <c r="R68" s="9">
         <v>3000</v>
       </c>
-      <c r="S68" s="4" t="s">
+      <c r="S68" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="T68" s="1">
+      <c r="T68" s="9">
         <v>3000</v>
       </c>
-      <c r="U68" s="4">
+      <c r="U68" s="13">
         <v>3000</v>
       </c>
-      <c r="V68" s="1">
+      <c r="V68" s="9">
         <v>3000</v>
       </c>
-      <c r="W68" s="4">
+      <c r="W68" s="13">
         <v>3000</v>
       </c>
-      <c r="X68" s="4">
+      <c r="X68" s="13">
         <v>2912</v>
       </c>
-      <c r="Y68" s="4">
+      <c r="Y68" s="13">
         <v>3000</v>
       </c>
-      <c r="Z68" s="4">
+      <c r="Z68" s="13">
         <v>3000</v>
       </c>
-      <c r="AA68" s="4">
+      <c r="AA68" s="13">
         <v>3000</v>
       </c>
-      <c r="AB68">
+      <c r="AB68" s="11">
         <v>3000</v>
       </c>
-      <c r="AC68">
+      <c r="AC68" s="11">
         <v>3000</v>
       </c>
-      <c r="AD68">
+      <c r="AD68" s="11">
         <v>3000</v>
       </c>
-      <c r="AE68" s="14">
+      <c r="AE68" s="13">
         <v>3000</v>
       </c>
-      <c r="AF68" s="15">
+      <c r="AF68" s="13">
         <v>3000</v>
       </c>
     </row>
-    <row r="69" spans="1:32" s="9" customFormat="1" ht="62" customHeight="1">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:32" s="8" customFormat="1" ht="62" customHeight="1">
+      <c r="A69" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
-      <c r="AA69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
     </row>
     <row r="70" spans="1:32" ht="62" customHeight="1">
       <c r="A70" s="1"/>

--- a/05_Data/data_checks.xlsx
+++ b/05_Data/data_checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/SPAML/SPAML-PSA/05_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8FE7B-A407-9E44-983E-BC050A9D819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E827FE99-0EC3-EF43-9606-8DFB4106F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -939,7 +939,7 @@
   </sheetPr>
   <dimension ref="A1:AF1069"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
